--- a/tbx/replications/data_WGP2016.xlsx
+++ b/tbx/replications/data_WGP2016.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2060E59B-C272-425B-A802-73BBDD32D643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="831"/>
+    <workbookView xWindow="-22800" yWindow="5130" windowWidth="21600" windowHeight="11385" tabRatio="831" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="12" r:id="rId1"/>
@@ -30,12 +31,17 @@
     <definedName name="_DLX2.INC" localSheetId="4">#REF!</definedName>
     <definedName name="_DLX2.INC">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -43,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2711" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2708" uniqueCount="204">
   <si>
     <t>2014q1</t>
   </si>
@@ -807,7 +813,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -1168,7 +1174,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1232,7 +1238,6 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1271,14 +1276,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="2"/>
-    <cellStyle name="Normal 2 3" xfId="8"/>
-    <cellStyle name="Normal 3" xfId="3"/>
-    <cellStyle name="Normale 2" xfId="7"/>
-    <cellStyle name="Standard 2" xfId="4"/>
-    <cellStyle name="Standard 3" xfId="5"/>
-    <cellStyle name="Standard 4" xfId="6"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normale 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Standard 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Standard 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Standard 4" xfId="6" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1341,7 +1346,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1374,9 +1379,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1409,6 +1431,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1584,13 +1623,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF4497DC"/>
   </sheetPr>
   <dimension ref="A1:AV85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScale="84" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1622,145 +1661,145 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="M1" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="N1" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="O1" s="29" t="s">
+      <c r="O1" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="P1" s="29" t="s">
+      <c r="P1" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="Q1" s="29" t="s">
+      <c r="Q1" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="R1" s="29" t="s">
+      <c r="R1" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="S1" s="29" t="s">
+      <c r="S1" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="T1" s="29" t="s">
+      <c r="T1" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="U1" s="29" t="s">
+      <c r="U1" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="V1" s="29" t="s">
+      <c r="V1" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="W1" s="31" t="s">
+      <c r="W1" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="X1" s="31" t="s">
+      <c r="X1" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="Y1" s="30" t="s">
+      <c r="Y1" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="Z1" s="30" t="s">
+      <c r="Z1" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="AA1" s="31" t="s">
+      <c r="AA1" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="AB1" s="31" t="s">
+      <c r="AB1" s="30" t="s">
         <v>202</v>
       </c>
-      <c r="AC1" s="30" t="s">
+      <c r="AC1" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="AD1" s="31" t="s">
+      <c r="AD1" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="AE1" s="31" t="s">
+      <c r="AE1" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="AF1" s="29" t="s">
+      <c r="AF1" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="AG1" s="31" t="s">
+      <c r="AG1" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="AH1" s="31" t="s">
+      <c r="AH1" s="30" t="s">
         <v>194</v>
       </c>
-      <c r="AI1" s="29" t="s">
+      <c r="AI1" s="28" t="s">
         <v>195</v>
       </c>
-      <c r="AJ1" s="27" t="s">
+      <c r="AJ1" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="AK1" s="26" t="s">
+      <c r="AK1" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="AL1" s="27" t="s">
+      <c r="AL1" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="AM1" s="28" t="s">
+      <c r="AM1" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="AN1" s="29" t="s">
+      <c r="AN1" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="AO1" s="29" t="s">
+      <c r="AO1" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="AP1" s="29" t="s">
+      <c r="AP1" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="AQ1" s="29" t="s">
+      <c r="AQ1" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="AR1" s="31" t="s">
+      <c r="AR1" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="AS1" s="31" t="s">
+      <c r="AS1" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="AT1" s="31" t="s">
+      <c r="AT1" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="AU1" s="31" t="s">
+      <c r="AU1" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="AV1" s="31" t="s">
+      <c r="AV1" s="30" t="s">
         <v>200</v>
       </c>
     </row>
@@ -1871,13 +1910,13 @@
       <c r="AI2" s="23">
         <v>1.0370681818181819</v>
       </c>
-      <c r="AJ2" s="25">
+      <c r="AJ2">
         <v>1.6724076160000001</v>
       </c>
-      <c r="AK2" s="25">
+      <c r="AK2">
         <v>1.6808738990000001</v>
       </c>
-      <c r="AL2" s="25">
+      <c r="AL2">
         <v>1.994196809</v>
       </c>
       <c r="AM2">
@@ -2018,13 +2057,13 @@
       <c r="AI3" s="23">
         <v>0.99910952380952367</v>
       </c>
-      <c r="AJ3" s="25">
+      <c r="AJ3">
         <v>1.6953039190000001</v>
       </c>
-      <c r="AK3" s="25">
+      <c r="AK3">
         <v>1.6961441289999999</v>
       </c>
-      <c r="AL3" s="25">
+      <c r="AL3">
         <v>2.0017322709999998</v>
       </c>
       <c r="AM3">
@@ -2165,13 +2204,13 @@
       <c r="AI4" s="23">
         <v>1.047918181818182</v>
       </c>
-      <c r="AJ4" s="25">
+      <c r="AJ4">
         <v>1.7322884650000001</v>
       </c>
-      <c r="AK4" s="25">
+      <c r="AK4">
         <v>1.7229819719999999</v>
       </c>
-      <c r="AL4" s="25">
+      <c r="AL4">
         <v>2.0040709209999998</v>
       </c>
       <c r="AM4">
@@ -2312,13 +2351,13 @@
       <c r="AI5" s="23">
         <v>0.95641428571428577</v>
       </c>
-      <c r="AJ5" s="25">
+      <c r="AJ5">
         <v>1.783459954</v>
       </c>
-      <c r="AK5" s="25">
+      <c r="AK5">
         <v>1.761581845</v>
       </c>
-      <c r="AL5" s="25">
+      <c r="AL5">
         <v>2.0012572729999998</v>
       </c>
       <c r="AM5">
@@ -2459,13 +2498,13 @@
       <c r="AI6" s="23">
         <v>0.75746956521739117</v>
       </c>
-      <c r="AJ6" s="25">
+      <c r="AJ6">
         <v>1.8086410610000001</v>
       </c>
-      <c r="AK6" s="25">
+      <c r="AK6">
         <v>1.7999758969999999</v>
       </c>
-      <c r="AL6" s="25">
+      <c r="AL6">
         <v>1.999618704</v>
       </c>
       <c r="AM6">
@@ -2606,13 +2645,13 @@
       <c r="AI7" s="23">
         <v>0.74610952380952378</v>
       </c>
-      <c r="AJ7" s="25">
+      <c r="AJ7">
         <v>1.807898985</v>
       </c>
-      <c r="AK7" s="25">
+      <c r="AK7">
         <v>1.8384422579999999</v>
       </c>
-      <c r="AL7" s="25">
+      <c r="AL7">
         <v>1.999124023</v>
       </c>
       <c r="AM7">
@@ -2753,13 +2792,13 @@
       <c r="AI8" s="23">
         <v>0.5906318181818182</v>
       </c>
-      <c r="AJ8" s="25">
+      <c r="AJ8">
         <v>1.7812317479999999</v>
       </c>
-      <c r="AK8" s="25">
+      <c r="AK8">
         <v>1.8772595830000001</v>
       </c>
-      <c r="AL8" s="25">
+      <c r="AL8">
         <v>1.999763814</v>
       </c>
       <c r="AM8">
@@ -2900,13 +2939,13 @@
       <c r="AI9" s="23">
         <v>0.60825217391304343</v>
       </c>
-      <c r="AJ9" s="25">
+      <c r="AJ9">
         <v>1.7886361879999999</v>
       </c>
-      <c r="AK9" s="25">
+      <c r="AK9">
         <v>1.903970852</v>
       </c>
-      <c r="AL9" s="25">
+      <c r="AL9">
         <v>2.000099305</v>
       </c>
       <c r="AM9">
@@ -3047,13 +3086,13 @@
       <c r="AI10" s="23">
         <v>0.64753500000000019</v>
       </c>
-      <c r="AJ10" s="25">
+      <c r="AJ10">
         <v>1.8301320649999999</v>
       </c>
-      <c r="AK10" s="25">
+      <c r="AK10">
         <v>1.9187695650000001</v>
       </c>
-      <c r="AL10" s="25">
+      <c r="AL10">
         <v>2.000136881</v>
       </c>
       <c r="AM10">
@@ -3194,13 +3233,13 @@
       <c r="AI11" s="23">
         <v>0.64232608695652171</v>
       </c>
-      <c r="AJ11" s="25">
+      <c r="AJ11">
         <v>1.905830116</v>
       </c>
-      <c r="AK11" s="25">
+      <c r="AK11">
         <v>1.9217629249999999</v>
       </c>
-      <c r="AL11" s="25">
+      <c r="AL11">
         <v>1.999877259</v>
       </c>
       <c r="AM11">
@@ -3341,13 +3380,13 @@
       <c r="AI12" s="23">
         <v>0.55103181818181823</v>
       </c>
-      <c r="AJ12" s="25">
+      <c r="AJ12">
         <v>1.9203723399999999</v>
       </c>
-      <c r="AK12" s="25">
+      <c r="AK12">
         <v>1.906217225</v>
       </c>
-      <c r="AL12" s="25">
+      <c r="AL12">
         <v>1.9999042810000001</v>
       </c>
       <c r="AM12">
@@ -3488,13 +3527,13 @@
       <c r="AI13" s="23">
         <v>0.49703333333333338</v>
       </c>
-      <c r="AJ13" s="25">
+      <c r="AJ13">
         <v>1.8737975440000001</v>
       </c>
-      <c r="AK13" s="25">
+      <c r="AK13">
         <v>1.87201985</v>
       </c>
-      <c r="AL13" s="25">
+      <c r="AL13">
         <v>2.0002184600000001</v>
       </c>
       <c r="AM13">
@@ -3635,13 +3674,13 @@
       <c r="AI14" s="23">
         <v>0.68793043478260874</v>
       </c>
-      <c r="AJ14" s="25">
+      <c r="AJ14">
         <v>1.7659814359999999</v>
       </c>
-      <c r="AK14" s="25">
+      <c r="AK14">
         <v>1.8189230700000001</v>
       </c>
-      <c r="AL14" s="25">
+      <c r="AL14">
         <v>2.0008257779999998</v>
       </c>
       <c r="AM14">
@@ -3782,13 +3821,13 @@
       <c r="AI15" s="23">
         <v>0.75171499999999991</v>
       </c>
-      <c r="AJ15" s="25">
+      <c r="AJ15">
         <v>1.689592296</v>
       </c>
-      <c r="AK15" s="25">
+      <c r="AK15">
         <v>1.791506225</v>
       </c>
-      <c r="AL15" s="25">
+      <c r="AL15">
         <v>2.0003604880000001</v>
       </c>
       <c r="AM15">
@@ -3929,13 +3968,13 @@
       <c r="AI16" s="23">
         <v>0.59000952380952376</v>
       </c>
-      <c r="AJ16" s="25">
+      <c r="AJ16">
         <v>1.6444262679999999</v>
       </c>
-      <c r="AK16" s="25">
+      <c r="AK16">
         <v>1.789570704</v>
       </c>
-      <c r="AL16" s="25">
+      <c r="AL16">
         <v>1.9988137340000001</v>
       </c>
       <c r="AM16">
@@ -4076,13 +4115,13 @@
       <c r="AI17" s="23">
         <v>0.49924999999999992</v>
       </c>
-      <c r="AJ17" s="25">
+      <c r="AJ17">
         <v>1.63036282</v>
       </c>
-      <c r="AK17" s="25">
+      <c r="AK17">
         <v>1.8131024870000001</v>
       </c>
-      <c r="AL17" s="25">
+      <c r="AL17">
         <v>1.996156075</v>
       </c>
       <c r="AM17">
@@ -4223,13 +4262,13 @@
       <c r="AI18" s="23">
         <v>0.52968695652173914</v>
       </c>
-      <c r="AJ18" s="25">
+      <c r="AJ18">
         <v>1.60409237</v>
       </c>
-      <c r="AK18" s="25">
+      <c r="AK18">
         <v>1.8091656970000001</v>
       </c>
-      <c r="AL18" s="25">
+      <c r="AL18">
         <v>1.9983640970000001</v>
       </c>
       <c r="AM18">
@@ -4370,13 +4409,13 @@
       <c r="AI19" s="23">
         <v>0.80433999999999983</v>
       </c>
-      <c r="AJ19" s="25">
+      <c r="AJ19">
         <v>1.5655448110000001</v>
       </c>
-      <c r="AK19" s="25">
+      <c r="AK19">
         <v>1.777731817</v>
       </c>
-      <c r="AL19" s="25">
+      <c r="AL19">
         <v>2.0054798279999999</v>
       </c>
       <c r="AM19">
@@ -4517,13 +4556,13 @@
       <c r="AI20" s="23">
         <v>0.79025217391304359</v>
       </c>
-      <c r="AJ20" s="25">
+      <c r="AJ20">
         <v>1.514617273</v>
       </c>
-      <c r="AK20" s="25">
+      <c r="AK20">
         <v>1.718573135</v>
       </c>
-      <c r="AL20" s="25">
+      <c r="AL20">
         <v>2.0176387120000001</v>
       </c>
       <c r="AM20">
@@ -4664,13 +4703,13 @@
       <c r="AI21" s="23">
         <v>0.94276363636363636</v>
       </c>
-      <c r="AJ21" s="25">
+      <c r="AJ21">
         <v>1.490938232</v>
       </c>
-      <c r="AK21" s="25">
+      <c r="AK21">
         <v>1.689905531</v>
       </c>
-      <c r="AL21" s="25">
+      <c r="AL21">
         <v>2.007497657</v>
       </c>
       <c r="AM21">
@@ -4811,13 +4850,13 @@
       <c r="AI22" s="23">
         <v>1.0067571428571429</v>
       </c>
-      <c r="AJ22" s="25">
+      <c r="AJ22">
         <v>1.494444495</v>
       </c>
-      <c r="AK22" s="25">
+      <c r="AK22">
         <v>1.6915213330000001</v>
       </c>
-      <c r="AL22" s="25">
+      <c r="AL22">
         <v>1.9748636310000001</v>
       </c>
       <c r="AM22">
@@ -4958,13 +4997,13 @@
       <c r="AI23" s="23">
         <v>0.88936521739130459</v>
       </c>
-      <c r="AJ23" s="25">
+      <c r="AJ23">
         <v>1.5251454200000001</v>
       </c>
-      <c r="AK23" s="25">
+      <c r="AK23">
         <v>1.723432246</v>
       </c>
-      <c r="AL23" s="25">
+      <c r="AL23">
         <v>1.919115465</v>
       </c>
       <c r="AM23">
@@ -5105,13 +5144,13 @@
       <c r="AI24" s="23">
         <v>0.74235714285714283</v>
       </c>
-      <c r="AJ24" s="25">
+      <c r="AJ24">
         <v>1.5139690429999999</v>
       </c>
-      <c r="AK24" s="25">
+      <c r="AK24">
         <v>1.7138531379999999</v>
       </c>
-      <c r="AL24" s="25">
+      <c r="AL24">
         <v>1.8909757309999999</v>
       </c>
       <c r="AM24">
@@ -5252,13 +5291,13 @@
       <c r="AI25" s="23">
         <v>0.81143181818181809</v>
       </c>
-      <c r="AJ25" s="25">
+      <c r="AJ25">
         <v>1.460885537</v>
       </c>
-      <c r="AK25" s="25">
+      <c r="AK25">
         <v>1.6627146159999999</v>
       </c>
-      <c r="AL25" s="25">
+      <c r="AL25">
         <v>1.8899088040000001</v>
       </c>
       <c r="AM25">
@@ -5399,13 +5438,13 @@
       <c r="AI26" s="23">
         <v>0.79897391304347809</v>
       </c>
-      <c r="AJ26" s="25">
+      <c r="AJ26">
         <v>1.365753242</v>
       </c>
-      <c r="AK26" s="25">
+      <c r="AK26">
         <v>1.5696462280000001</v>
       </c>
-      <c r="AL26" s="25">
+      <c r="AL26">
         <v>1.9158943749999999</v>
       </c>
       <c r="AM26">
@@ -5546,13 +5585,13 @@
       <c r="AI27" s="23">
         <v>0.64389000000000007</v>
       </c>
-      <c r="AJ27" s="25">
+      <c r="AJ27">
         <v>1.292703972</v>
       </c>
-      <c r="AK27" s="25">
+      <c r="AK27">
         <v>1.494280949</v>
       </c>
-      <c r="AL27" s="25">
+      <c r="AL27">
         <v>1.9104956769999999</v>
       </c>
       <c r="AM27">
@@ -5693,13 +5732,13 @@
       <c r="AI28" s="23">
         <v>0.63138571428571411</v>
       </c>
-      <c r="AJ28" s="25">
+      <c r="AJ28">
         <v>1.2415427859999999</v>
       </c>
-      <c r="AK28" s="25">
+      <c r="AK28">
         <v>1.436072824</v>
       </c>
-      <c r="AL28" s="25">
+      <c r="AL28">
         <v>1.8736099479999999</v>
       </c>
       <c r="AM28">
@@ -5840,13 +5879,13 @@
       <c r="AI29" s="23">
         <v>0.61079090909090905</v>
       </c>
-      <c r="AJ29" s="25">
+      <c r="AJ29">
         <v>1.2121331529999999</v>
       </c>
-      <c r="AK29" s="25">
+      <c r="AK29">
         <v>1.394600185</v>
       </c>
-      <c r="AL29" s="25">
+      <c r="AL29">
         <v>1.804535089</v>
       </c>
       <c r="AM29">
@@ -5987,13 +6026,13 @@
       <c r="AI30" s="23">
         <v>0.49747272727272734</v>
       </c>
-      <c r="AJ30" s="25">
+      <c r="AJ30">
         <v>1.1956918489999999</v>
       </c>
-      <c r="AK30" s="25">
+      <c r="AK30">
         <v>1.388293309</v>
       </c>
-      <c r="AL30" s="25">
+      <c r="AL30">
         <v>1.783962952</v>
       </c>
       <c r="AM30">
@@ -6134,13 +6173,13 @@
       <c r="AI31" s="23">
         <v>0.4035333333333333</v>
       </c>
-      <c r="AJ31" s="25">
+      <c r="AJ31">
         <v>1.1921749989999999</v>
       </c>
-      <c r="AK31" s="25">
+      <c r="AK31">
         <v>1.4171065060000001</v>
       </c>
-      <c r="AL31" s="25">
+      <c r="AL31">
         <v>1.8115019590000001</v>
       </c>
       <c r="AM31">
@@ -6281,13 +6320,13 @@
       <c r="AI32" s="23">
         <v>0.34367826086956516</v>
       </c>
-      <c r="AJ32" s="25">
+      <c r="AJ32">
         <v>1.201573217</v>
       </c>
-      <c r="AK32" s="25">
+      <c r="AK32">
         <v>1.481248503</v>
       </c>
-      <c r="AL32" s="25">
+      <c r="AL32">
         <v>1.8876762979999999</v>
       </c>
       <c r="AM32">
@@ -6428,13 +6467,13 @@
       <c r="AI33" s="23">
         <v>0.25723809523809521</v>
       </c>
-      <c r="AJ33" s="25">
+      <c r="AJ33">
         <v>1.2027420790000001</v>
       </c>
-      <c r="AK33" s="25">
+      <c r="AK33">
         <v>1.5112932130000001</v>
       </c>
-      <c r="AL33" s="25">
+      <c r="AL33">
         <v>1.9158286929999999</v>
       </c>
       <c r="AM33">
@@ -6575,13 +6614,13 @@
       <c r="AI34" s="23">
         <v>0.17465909090909087</v>
       </c>
-      <c r="AJ34" s="25">
+      <c r="AJ34">
         <v>1.195684703</v>
       </c>
-      <c r="AK34" s="25">
+      <c r="AK34">
         <v>1.5074582839999999</v>
       </c>
-      <c r="AL34" s="25">
+      <c r="AL34">
         <v>1.8964950089999999</v>
       </c>
       <c r="AM34">
@@ -6722,13 +6761,13 @@
       <c r="AI35" s="23">
         <v>0.15247826086956523</v>
       </c>
-      <c r="AJ35" s="25">
+      <c r="AJ35">
         <v>1.1803822559999999</v>
       </c>
-      <c r="AK35" s="25">
+      <c r="AK35">
         <v>1.4697159360000001</v>
       </c>
-      <c r="AL35" s="25">
+      <c r="AL35">
         <v>1.829307241</v>
       </c>
       <c r="AM35">
@@ -6869,13 +6908,13 @@
       <c r="AI36" s="23">
         <v>0.10819000000000001</v>
       </c>
-      <c r="AJ36" s="25">
+      <c r="AJ36">
         <v>1.1163126969999999</v>
       </c>
-      <c r="AK36" s="25">
+      <c r="AK36">
         <v>1.408104976</v>
       </c>
-      <c r="AL36" s="25">
+      <c r="AL36">
         <v>1.790713521</v>
       </c>
       <c r="AM36">
@@ -7016,13 +7055,13 @@
       <c r="AI37" s="23">
         <v>8.6060869565217399E-2</v>
       </c>
-      <c r="AJ37" s="25">
+      <c r="AJ37">
         <v>1.003305047</v>
       </c>
-      <c r="AK37" s="25">
+      <c r="AK37">
         <v>1.3221790879999999</v>
       </c>
-      <c r="AL37" s="25">
+      <c r="AL37">
         <v>1.7799792379999999</v>
       </c>
       <c r="AM37">
@@ -7163,13 +7202,13 @@
       <c r="AI38" s="23">
         <v>2.7049999999999998E-2</v>
       </c>
-      <c r="AJ38" s="25">
+      <c r="AJ38">
         <v>0.841057728</v>
       </c>
-      <c r="AK38" s="25">
+      <c r="AK38">
         <v>1.211315814</v>
       </c>
-      <c r="AL38" s="25">
+      <c r="AL38">
         <v>1.79690007</v>
       </c>
       <c r="AM38">
@@ -7310,13 +7349,13 @@
       <c r="AI39" s="23">
         <v>2.5784999999999995E-2</v>
       </c>
-      <c r="AJ39" s="25">
+      <c r="AJ39">
         <v>0.76975017599999995</v>
       </c>
-      <c r="AK39" s="25">
+      <c r="AK39">
         <v>1.1751785809999999</v>
       </c>
-      <c r="AL39" s="25">
+      <c r="AL39">
         <v>1.8034241799999999</v>
       </c>
       <c r="AM39">
@@ -7457,13 +7496,13 @@
       <c r="AI40" s="23">
         <v>1.4286363636363635E-2</v>
       </c>
-      <c r="AJ40" s="25">
+      <c r="AJ40">
         <v>0.78919209599999995</v>
       </c>
-      <c r="AK40" s="25">
+      <c r="AK40">
         <v>1.213505606</v>
       </c>
-      <c r="AL40" s="25">
+      <c r="AL40">
         <v>1.79967575</v>
       </c>
       <c r="AM40">
@@ -7604,13 +7643,13 @@
       <c r="AI41" s="23">
         <v>-2.5009090909090911E-2</v>
       </c>
-      <c r="AJ41" s="25">
+      <c r="AJ41">
         <v>0.89943537200000001</v>
       </c>
-      <c r="AK41" s="25">
+      <c r="AK41">
         <v>1.326574535</v>
       </c>
-      <c r="AL41" s="25">
+      <c r="AL41">
         <v>1.7855834310000001</v>
       </c>
       <c r="AM41">
@@ -7751,13 +7790,13 @@
       <c r="AI42" s="23">
         <v>0.15101428571428571</v>
       </c>
-      <c r="AJ42" s="25">
+      <c r="AJ42">
         <v>1.0023510010000001</v>
       </c>
-      <c r="AK42" s="25">
+      <c r="AK42">
         <v>1.4097602140000001</v>
       </c>
-      <c r="AL42" s="25">
+      <c r="AL42">
         <v>1.7928382549999999</v>
       </c>
       <c r="AM42">
@@ -7898,13 +7937,13 @@
       <c r="AI43" s="23">
         <v>0.27350909090909092</v>
       </c>
-      <c r="AJ43" s="25">
+      <c r="AJ43">
         <v>1.098213627</v>
       </c>
-      <c r="AK43" s="25">
+      <c r="AK43">
         <v>1.4636652509999999</v>
       </c>
-      <c r="AL43" s="25">
+      <c r="AL43">
         <v>1.8215783139999999</v>
       </c>
       <c r="AM43">
@@ -8045,13 +8084,13 @@
       <c r="AI44" s="23">
         <v>0.20212608695652176</v>
       </c>
-      <c r="AJ44" s="25">
+      <c r="AJ44">
         <v>1.1872790740000001</v>
       </c>
-      <c r="AK44" s="25">
+      <c r="AK44">
         <v>1.48868014</v>
       </c>
-      <c r="AL44" s="25">
+      <c r="AL44">
         <v>1.8723506590000001</v>
       </c>
       <c r="AM44">
@@ -8192,13 +8231,13 @@
       <c r="AI45" s="23">
         <v>0.14411904761904765</v>
       </c>
-      <c r="AJ45" s="25">
+      <c r="AJ45">
         <v>1.219064924</v>
       </c>
-      <c r="AK45" s="25">
+      <c r="AK45">
         <v>1.503397104</v>
       </c>
-      <c r="AL45" s="25">
+      <c r="AL45">
         <v>1.9056224230000001</v>
       </c>
       <c r="AM45">
@@ -8339,13 +8378,13 @@
       <c r="AI46" s="23">
         <v>0.12359545454545452</v>
       </c>
-      <c r="AJ46" s="25">
+      <c r="AJ46">
         <v>1.193656002</v>
       </c>
-      <c r="AK46" s="25">
+      <c r="AK46">
         <v>1.5079227550000001</v>
       </c>
-      <c r="AL46" s="25">
+      <c r="AL46">
         <v>1.922026918</v>
       </c>
       <c r="AM46">
@@ -8486,13 +8525,13 @@
       <c r="AI47" s="23">
         <v>5.2759090909090915E-2</v>
       </c>
-      <c r="AJ47" s="25">
+      <c r="AJ47">
         <v>1.1109845009999999</v>
       </c>
-      <c r="AK47" s="25">
+      <c r="AK47">
         <v>1.5022898769999999</v>
       </c>
-      <c r="AL47" s="25">
+      <c r="AL47">
         <v>1.921876393</v>
       </c>
       <c r="AM47">
@@ -8633,13 +8672,13 @@
       <c r="AI48" s="23">
         <v>-1.5000000000000003E-2</v>
       </c>
-      <c r="AJ48" s="25">
+      <c r="AJ48">
         <v>1.082097522</v>
       </c>
-      <c r="AK48" s="25">
+      <c r="AK48">
         <v>1.4991699000000001</v>
       </c>
-      <c r="AL48" s="25">
+      <c r="AL48">
         <v>1.9055093510000001</v>
       </c>
       <c r="AM48">
@@ -8780,13 +8819,13 @@
       <c r="AI49" s="23">
         <v>4.0021739130434775E-2</v>
       </c>
-      <c r="AJ49" s="25">
+      <c r="AJ49">
         <v>1.1069179769999999</v>
       </c>
-      <c r="AK49" s="25">
+      <c r="AK49">
         <v>1.498540223</v>
       </c>
-      <c r="AL49" s="25">
+      <c r="AL49">
         <v>1.872614255</v>
       </c>
       <c r="AM49">
@@ -8927,13 +8966,13 @@
       <c r="AI50" s="23">
         <v>-4.6680952380952379E-2</v>
       </c>
-      <c r="AJ50" s="25">
+      <c r="AJ50">
         <v>1.1855121040000001</v>
       </c>
-      <c r="AK50" s="25">
+      <c r="AK50">
         <v>1.5003962829999999</v>
       </c>
-      <c r="AL50" s="25">
+      <c r="AL50">
         <v>1.822564965</v>
       </c>
       <c r="AM50">
@@ -9074,13 +9113,13 @@
       <c r="AI51" s="23">
         <v>-0.24282857142857139</v>
       </c>
-      <c r="AJ51" s="25">
+      <c r="AJ51">
         <v>1.216006213</v>
       </c>
-      <c r="AK51" s="25">
+      <c r="AK51">
         <v>1.500562784</v>
       </c>
-      <c r="AL51" s="25">
+      <c r="AL51">
         <v>1.7932683300000001</v>
       </c>
       <c r="AM51">
@@ -9221,13 +9260,13 @@
       <c r="AI52" s="23">
         <v>-0.23979565217391308</v>
       </c>
-      <c r="AJ52" s="25">
+      <c r="AJ52">
         <v>1.198481683</v>
       </c>
-      <c r="AK52" s="25">
+      <c r="AK52">
         <v>1.4990409330000001</v>
       </c>
-      <c r="AL52" s="25">
+      <c r="AL52">
         <v>1.7841667050000001</v>
       </c>
       <c r="AM52">
@@ -9368,13 +9407,13 @@
       <c r="AI53" s="23">
         <v>-0.25785714285714284</v>
       </c>
-      <c r="AJ53" s="25">
+      <c r="AJ53">
         <v>1.132891748</v>
       </c>
-      <c r="AK53" s="25">
+      <c r="AK53">
         <v>1.4958197040000001</v>
       </c>
-      <c r="AL53" s="25">
+      <c r="AL53">
         <v>1.7950868470000001</v>
       </c>
       <c r="AM53">
@@ -9515,13 +9554,13 @@
       <c r="AI54" s="23">
         <v>-0.26126363636363636</v>
       </c>
-      <c r="AJ54" s="25">
+      <c r="AJ54">
         <v>1.0918528329999999</v>
       </c>
-      <c r="AK54" s="25">
+      <c r="AK54">
         <v>1.498145407</v>
       </c>
-      <c r="AL54" s="25">
+      <c r="AL54">
         <v>1.8014713659999999</v>
       </c>
       <c r="AM54">
@@ -9662,13 +9701,13 @@
       <c r="AI55" s="23">
         <v>-0.33395909090909093</v>
       </c>
-      <c r="AJ55" s="25">
+      <c r="AJ55">
         <v>1.0752554190000001</v>
       </c>
-      <c r="AK55" s="25">
+      <c r="AK55">
         <v>1.50603489</v>
       </c>
-      <c r="AL55" s="25">
+      <c r="AL55">
         <v>1.803441788</v>
       </c>
       <c r="AM55">
@@ -9809,13 +9848,13 @@
       <c r="AI56" s="23">
         <v>-0.42547142857142861</v>
       </c>
-      <c r="AJ56" s="25">
+      <c r="AJ56">
         <v>1.083055214</v>
       </c>
-      <c r="AK56" s="25">
+      <c r="AK56">
         <v>1.5195453050000001</v>
       </c>
-      <c r="AL56" s="25">
+      <c r="AL56">
         <v>1.8010356190000001</v>
       </c>
       <c r="AM56">
@@ -9956,13 +9995,13 @@
       <c r="AI57" s="23">
         <v>-0.40125217391304346</v>
       </c>
-      <c r="AJ57" s="25">
+      <c r="AJ57">
         <v>1.0977039790000001</v>
       </c>
-      <c r="AK57" s="25">
+      <c r="AK57">
         <v>1.5082843239999999</v>
       </c>
-      <c r="AL57" s="25">
+      <c r="AL57">
         <v>1.7996638899999999</v>
       </c>
       <c r="AM57">
@@ -10103,13 +10142,13 @@
       <c r="AI58" s="23">
         <v>-0.38355</v>
       </c>
-      <c r="AJ58" s="25">
+      <c r="AJ58">
         <v>1.1192408069999999</v>
       </c>
-      <c r="AK58" s="25">
+      <c r="AK58">
         <v>1.472170371</v>
       </c>
-      <c r="AL58" s="25">
+      <c r="AL58">
         <v>1.7993004909999999</v>
       </c>
       <c r="AM58">
@@ -10250,13 +10289,13 @@
       <c r="AI59" s="23">
         <v>-0.30312857142857147</v>
       </c>
-      <c r="AJ59" s="25">
+      <c r="AJ59">
         <v>1.1477231699999999</v>
       </c>
-      <c r="AK59" s="25">
+      <c r="AK59">
         <v>1.410941832</v>
       </c>
-      <c r="AL59" s="25">
+      <c r="AL59">
         <v>1.7999385050000001</v>
       </c>
       <c r="AM59">
@@ -10397,13 +10436,13 @@
       <c r="AI60" s="23">
         <v>-0.15910454545454544</v>
       </c>
-      <c r="AJ60" s="25">
+      <c r="AJ60">
         <v>1.194020496</v>
       </c>
-      <c r="AK60" s="25">
+      <c r="AK60">
         <v>1.38747083</v>
       </c>
-      <c r="AL60" s="25">
+      <c r="AL60">
         <v>1.8001431560000001</v>
       </c>
       <c r="AM60">
@@ -10544,13 +10583,13 @@
       <c r="AI61" s="23">
         <v>-0.12155909090909091</v>
       </c>
-      <c r="AJ61" s="25">
+      <c r="AJ61">
         <v>1.2582563339999999</v>
       </c>
-      <c r="AK61" s="25">
+      <c r="AK61">
         <v>1.401587337</v>
       </c>
-      <c r="AL61" s="25">
+      <c r="AL61">
         <v>1.799918339</v>
       </c>
       <c r="AM61">
@@ -10691,13 +10730,13 @@
       <c r="AI62" s="23">
         <v>-9.7781818181818178E-2</v>
       </c>
-      <c r="AJ62" s="25">
+      <c r="AJ62">
         <v>1.3406021079999999</v>
       </c>
-      <c r="AK62" s="25">
+      <c r="AK62">
         <v>1.4533936160000001</v>
       </c>
-      <c r="AL62" s="25">
+      <c r="AL62">
         <v>1.7992597749999999</v>
       </c>
       <c r="AM62">
@@ -10838,13 +10877,13 @@
       <c r="AI63" s="23">
         <v>-9.2099999999999987E-2</v>
       </c>
-      <c r="AJ63" s="25">
+      <c r="AJ63">
         <v>1.405693544</v>
       </c>
-      <c r="AK63" s="25">
+      <c r="AK63">
         <v>1.501213371</v>
       </c>
-      <c r="AL63" s="25">
+      <c r="AL63">
         <v>1.7996484530000001</v>
       </c>
       <c r="AM63">
@@ -10985,13 +11024,13 @@
       <c r="AI64" s="23">
         <v>1.0843478260869562E-2</v>
       </c>
-      <c r="AJ64" s="25">
+      <c r="AJ64">
         <v>1.453704348</v>
       </c>
-      <c r="AK64" s="25">
+      <c r="AK64">
         <v>1.545393013</v>
       </c>
-      <c r="AL64" s="25">
+      <c r="AL64">
         <v>1.8010917710000001</v>
       </c>
       <c r="AM64">
@@ -11132,13 +11171,13 @@
       <c r="AI65" s="23">
         <v>-6.8905000000000008E-2</v>
       </c>
-      <c r="AJ65" s="25">
+      <c r="AJ65">
         <v>1.4847626439999999</v>
       </c>
-      <c r="AK65" s="25">
+      <c r="AK65">
         <v>1.5862525860000001</v>
       </c>
-      <c r="AL65" s="25">
+      <c r="AL65">
         <v>1.8036172020000001</v>
       </c>
       <c r="AM65">
@@ -11279,13 +11318,13 @@
       <c r="AI66" s="23">
         <v>1.1513043478260866E-2</v>
       </c>
-      <c r="AJ66" s="25">
+      <c r="AJ66">
         <v>1.503942439</v>
       </c>
-      <c r="AK66" s="25">
+      <c r="AK66">
         <v>1.6067409349999999</v>
       </c>
-      <c r="AL66" s="25">
+      <c r="AL66">
         <v>1.8015455170000001</v>
       </c>
       <c r="AM66">
@@ -11426,13 +11465,13 @@
       <c r="AI67" s="23">
         <v>-3.2031818181818189E-2</v>
       </c>
-      <c r="AJ67" s="25">
+      <c r="AJ67">
         <v>1.5112949170000001</v>
       </c>
-      <c r="AK67" s="25">
+      <c r="AK67">
         <v>1.607006479</v>
       </c>
-      <c r="AL67" s="25">
+      <c r="AL67">
         <v>1.794837281</v>
       </c>
       <c r="AM67">
@@ -11573,13 +11612,13 @@
       <c r="AI68" s="23">
         <v>9.1433333333333325E-2</v>
       </c>
-      <c r="AJ68" s="25">
+      <c r="AJ68">
         <v>1.5068396989999999</v>
       </c>
-      <c r="AK68" s="25">
+      <c r="AK68">
         <v>1.587051142</v>
       </c>
-      <c r="AL68" s="25">
+      <c r="AL68">
         <v>1.783364808</v>
       </c>
       <c r="AM68">
@@ -11720,13 +11759,13 @@
       <c r="AI69" s="23">
         <v>1.4869565217391274E-3</v>
       </c>
-      <c r="AJ69" s="25">
+      <c r="AJ69">
         <v>1.500600283</v>
       </c>
-      <c r="AK69" s="25">
+      <c r="AK69">
         <v>1.5917654139999999</v>
       </c>
-      <c r="AL69" s="25">
+      <c r="AL69">
         <v>1.792927578</v>
       </c>
       <c r="AM69">
@@ -11867,13 +11906,13 @@
       <c r="AI70" s="23">
         <v>6.28571428571432E-4</v>
       </c>
-      <c r="AJ70" s="25">
+      <c r="AJ70">
         <v>1.492560018</v>
       </c>
-      <c r="AK70" s="25">
+      <c r="AK70">
         <v>1.621183445</v>
       </c>
-      <c r="AL70" s="25">
+      <c r="AL70">
         <v>1.8237076139999999</v>
       </c>
       <c r="AM70">
@@ -12014,13 +12053,13 @@
       <c r="AI71" s="23">
         <v>3.7154545454545447E-2</v>
       </c>
-      <c r="AJ71" s="25">
+      <c r="AJ71">
         <v>1.4826974470000001</v>
       </c>
-      <c r="AK71" s="25">
+      <c r="AK71">
         <v>1.675518343</v>
       </c>
-      <c r="AL71" s="25">
+      <c r="AL71">
         <v>1.8762907959999999</v>
       </c>
       <c r="AM71">
@@ -12161,13 +12200,13 @@
       <c r="AI72" s="23">
         <v>2.0154545454545456E-2</v>
       </c>
-      <c r="AJ72" s="25">
+      <c r="AJ72">
         <v>1.493201711</v>
       </c>
-      <c r="AK72" s="25">
+      <c r="AK72">
         <v>1.7074055610000001</v>
       </c>
-      <c r="AL72" s="25">
+      <c r="AL72">
         <v>1.907072018</v>
       </c>
       <c r="AM72">
@@ -12308,13 +12347,13 @@
       <c r="AI73" s="23">
         <v>7.6523809523809522E-2</v>
       </c>
-      <c r="AJ73" s="25">
+      <c r="AJ73">
         <v>1.524100842</v>
       </c>
-      <c r="AK73" s="25">
+      <c r="AK73">
         <v>1.717076096</v>
       </c>
-      <c r="AL73" s="25">
+      <c r="AL73">
         <v>1.916637186</v>
       </c>
       <c r="AM73">
@@ -12455,13 +12494,13 @@
       <c r="AI74" s="23">
         <v>0.21088695652173914</v>
       </c>
-      <c r="AJ74" s="25">
+      <c r="AJ74">
         <v>1.5754772990000001</v>
       </c>
-      <c r="AK74" s="25">
+      <c r="AK74">
         <v>1.704600001</v>
       </c>
-      <c r="AL74" s="25">
+      <c r="AL74">
         <v>1.9051683660000001</v>
       </c>
       <c r="AM74">
@@ -12602,13 +12641,13 @@
       <c r="AI75" s="23">
         <v>0.31775500000000007</v>
       </c>
-      <c r="AJ75" s="25">
+      <c r="AJ75">
         <v>1.6066926130000001</v>
       </c>
-      <c r="AK75" s="25">
+      <c r="AK75">
         <v>1.6980428519999999</v>
       </c>
-      <c r="AL75" s="25">
+      <c r="AL75">
         <v>1.8984568239999999</v>
       </c>
       <c r="AM75">
@@ -12749,13 +12788,13 @@
       <c r="AI76" s="23">
         <v>0.24460909090909089</v>
       </c>
-      <c r="AJ76" s="25">
+      <c r="AJ76">
         <v>1.6178300880000001</v>
       </c>
-      <c r="AK76" s="25">
+      <c r="AK76">
         <v>1.697357148</v>
       </c>
-      <c r="AL76" s="25">
+      <c r="AL76">
         <v>1.89637481</v>
       </c>
       <c r="AM76">
@@ -12896,13 +12935,13 @@
       <c r="AI77" s="23">
         <v>0.20603333333333337</v>
       </c>
-      <c r="AJ77" s="25">
+      <c r="AJ77">
         <v>1.6089194440000001</v>
       </c>
-      <c r="AK77" s="25">
+      <c r="AK77">
         <v>1.7025379220000001</v>
       </c>
-      <c r="AL77" s="25">
+      <c r="AL77">
         <v>1.8988826940000001</v>
       </c>
       <c r="AM77">
@@ -13043,13 +13082,13 @@
       <c r="AI78" s="23">
         <v>0.1931347826086956</v>
       </c>
-      <c r="AJ78" s="25">
+      <c r="AJ78">
         <v>1.6000081450000001</v>
       </c>
-      <c r="AK78" s="25">
+      <c r="AK78">
         <v>1.701930773</v>
       </c>
-      <c r="AL78" s="25">
+      <c r="AL78">
         <v>1.9003407059999999</v>
       </c>
       <c r="AM78">
@@ -13190,13 +13229,13 @@
       <c r="AI79" s="23">
         <v>0.13178571428571431</v>
       </c>
-      <c r="AJ79" s="25">
+      <c r="AJ79">
         <v>1.59107241</v>
       </c>
-      <c r="AK79" s="25">
+      <c r="AK79">
         <v>1.695531305</v>
       </c>
-      <c r="AL79" s="25">
+      <c r="AL79">
         <v>1.9007765999999999</v>
       </c>
       <c r="AM79">
@@ -13337,13 +13376,13 @@
       <c r="AI80" s="23">
         <v>0.10003636363636365</v>
       </c>
-      <c r="AJ80" s="25">
+      <c r="AJ80">
         <v>1.582088393</v>
       </c>
-      <c r="AK80" s="25">
+      <c r="AK80">
         <v>1.683293157</v>
       </c>
-      <c r="AL80" s="25">
+      <c r="AL80">
         <v>1.9001986710000001</v>
       </c>
       <c r="AM80">
@@ -13484,13 +13523,13 @@
       <c r="AI81" s="23">
         <v>0.10675652173913046</v>
       </c>
-      <c r="AJ81" s="25">
+      <c r="AJ81">
         <v>1.593268635</v>
       </c>
-      <c r="AK81" s="25">
+      <c r="AK81">
         <v>1.692746632</v>
       </c>
-      <c r="AL81" s="25">
+      <c r="AL81">
         <v>1.899906576</v>
       </c>
       <c r="AM81">
@@ -13631,13 +13670,13 @@
       <c r="AI82" s="23">
         <v>0.18506000000000003</v>
       </c>
-      <c r="AJ82" s="25">
+      <c r="AJ82">
         <v>1.624642973</v>
       </c>
-      <c r="AK82" s="25">
+      <c r="AK82">
         <v>1.7239602110000001</v>
       </c>
-      <c r="AL82" s="25">
+      <c r="AL82">
         <v>1.899894754</v>
       </c>
       <c r="AM82">
@@ -13778,13 +13817,13 @@
       <c r="AI83" s="23">
         <v>0.24217391304347827</v>
       </c>
-      <c r="AJ83" s="25">
+      <c r="AJ83">
         <v>1.676295133</v>
       </c>
-      <c r="AK83" s="25">
+      <c r="AK83">
         <v>1.77716001</v>
       </c>
-      <c r="AL83" s="25">
+      <c r="AL83">
         <v>1.9001629799999999</v>
       </c>
       <c r="AM83">
@@ -13925,13 +13964,13 @@
       <c r="AI84" s="23">
         <v>0.17994545454545455</v>
       </c>
-      <c r="AJ84" s="25">
+      <c r="AJ84">
         <v>1.7069663610000001</v>
       </c>
-      <c r="AK84" s="25">
+      <c r="AK84">
         <v>1.807534942</v>
       </c>
-      <c r="AL84" s="25">
+      <c r="AL84">
         <v>1.900108063</v>
       </c>
       <c r="AM84">
@@ -14072,13 +14111,13 @@
       <c r="AI85" s="23">
         <v>9.4952380952380941E-2</v>
       </c>
-      <c r="AJ85" s="25">
+      <c r="AJ85">
         <v>1.716738506</v>
       </c>
-      <c r="AK85" s="25">
+      <c r="AK85">
         <v>1.8153050479999999</v>
       </c>
-      <c r="AL85" s="25">
+      <c r="AL85">
         <v>1.899728957</v>
       </c>
       <c r="AM85">
@@ -14119,7 +14158,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -14142,7 +14181,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -14154,7 +14193,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -14166,7 +14205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -14178,7 +14217,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -14190,7 +14229,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -14224,13 +14263,13 @@
       <c r="B3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="32">
         <v>0.5</v>
       </c>
-      <c r="D3" s="34">
+      <c r="D3" s="33">
         <v>1</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="34">
         <v>0.1</v>
       </c>
       <c r="G3" s="7" t="s">
@@ -14241,13 +14280,13 @@
       <c r="B4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="35">
         <v>0.05</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="31">
         <v>0.2</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="36">
         <v>0.01</v>
       </c>
       <c r="G4" s="6" t="s">
@@ -14258,13 +14297,13 @@
       <c r="B5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="35">
         <v>0.1</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="31">
         <v>1</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5" s="36">
         <v>0.1</v>
       </c>
       <c r="G5" s="6" t="s">
@@ -14275,13 +14314,13 @@
       <c r="B6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="35">
         <v>1</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="31">
         <v>2</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="36">
         <v>0.2</v>
       </c>
       <c r="G6" s="6" t="s">
@@ -14292,13 +14331,13 @@
       <c r="B7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="35">
         <v>100</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="31">
         <v>1000</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7" s="36">
         <v>100</v>
       </c>
       <c r="G7" s="6" t="s">
@@ -14309,13 +14348,13 @@
       <c r="B8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="35">
         <v>0.1</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="31">
         <v>1</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="36">
         <v>0.1</v>
       </c>
       <c r="G8" s="7" t="s">
@@ -14326,13 +14365,13 @@
       <c r="B9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="38">
+      <c r="C9" s="37">
         <v>0.01</v>
       </c>
-      <c r="D9" s="39">
+      <c r="D9" s="38">
         <v>0.1</v>
       </c>
-      <c r="E9" s="40">
+      <c r="E9" s="39">
         <v>0.01</v>
       </c>
       <c r="G9" s="6"/>
@@ -14344,7 +14383,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -15093,764 +15132,745 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:AT50"/>
+  <dimension ref="B1:AU48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AS5" sqref="AS5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.140625" customWidth="1"/>
-    <col min="32" max="32" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="35" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="38" width="5.28515625" customWidth="1"/>
-    <col min="39" max="39" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="4" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.140625" customWidth="1"/>
+    <col min="33" max="33" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="36" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="39" width="5.28515625" customWidth="1"/>
+    <col min="40" max="40" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="4" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A1"/>
-      <c r="B1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6" t="s">
+    <row r="1" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="B1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="S2" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:46" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
+    <row r="3" spans="2:47" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="6"/>
+      <c r="C3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="AP3" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AR3" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="AS3" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="AT3" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="AU3" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="2:47" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="21"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="U4" s="8"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+    </row>
+    <row r="5" spans="2:47" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C5" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="C5" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="21"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="U5" s="8"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+    </row>
+    <row r="6" spans="2:47" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="Y5" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z5" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA5" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="AB5" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="AC5" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="AD5" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="AE5" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="AF5" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="AG5" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="AH5" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AI5" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="AJ5" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="AK5" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="AL5" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM5" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="AN5" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="AO5" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="AP5" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="AQ5" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="AR5" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="AS5" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="AT5" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="6" spans="1:46" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="21"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="T6" s="8"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
+      <c r="F6" s="7"/>
+      <c r="G6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="20"/>
+      <c r="K6" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="20"/>
+      <c r="O6" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="P6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>0</v>
+      </c>
+      <c r="R6" s="20"/>
+      <c r="S6" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="U6" s="8"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
       <c r="Y6" s="12"/>
       <c r="Z6" s="12"/>
-    </row>
-    <row r="7" spans="1:46" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>105</v>
-      </c>
+      <c r="AA6" s="12"/>
+    </row>
+    <row r="7" spans="2:47" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="20"/>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
       <c r="F7" s="21"/>
-      <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="L7" s="2"/>
+      <c r="K7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
-      <c r="P7" s="2"/>
+      <c r="O7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
-      <c r="T7" s="8"/>
-      <c r="V7" s="12"/>
+      <c r="S7" s="2"/>
+      <c r="U7" s="8"/>
       <c r="W7" s="12"/>
       <c r="X7" s="12"/>
       <c r="Y7" s="12"/>
       <c r="Z7" s="12"/>
-    </row>
-    <row r="8" spans="1:46" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B8" s="7">
-        <v>0</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="20" t="s">
+      <c r="AA7" s="12"/>
+    </row>
+    <row r="8" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" t="s">
+      <c r="F8" s="21"/>
+      <c r="G8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="2:47" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="H9" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="I9" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="G8" s="7">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="21" t="s">
+      <c r="J9" s="20"/>
+      <c r="K9" s="21"/>
+      <c r="T9" s="8"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+    </row>
+    <row r="10" spans="2:47" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="K8" s="7">
-        <v>0</v>
-      </c>
-      <c r="L8" s="7">
-        <v>0</v>
-      </c>
-      <c r="M8" s="20"/>
-      <c r="N8" s="21" t="s">
+      <c r="I10" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="O8" s="7">
-        <v>0</v>
-      </c>
-      <c r="P8" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="T8" s="8"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-    </row>
-    <row r="9" spans="1:46" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="T9" s="8"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="12"/>
-    </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="E10" s="21"/>
-      <c r="F10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:46" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="G11" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>105</v>
-      </c>
+      <c r="J10" s="20"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="8"/>
+    </row>
+    <row r="11" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="H11" s="20"/>
       <c r="I11" s="20"/>
       <c r="J11" s="21"/>
-      <c r="S11" s="8"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-    </row>
-    <row r="12" spans="1:46" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="22" t="s">
+      <c r="K11" s="21"/>
+    </row>
+    <row r="12" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E12" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="H12" s="20" t="s">
+      <c r="J12" s="21"/>
+      <c r="K12" s="21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="2:47" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="L13" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="M13" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I12" s="20"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="8"/>
-    </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-    </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D14" s="21" t="s">
+      <c r="N13" s="20"/>
+      <c r="O13" s="21"/>
+      <c r="T13" s="8"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+    </row>
+    <row r="14" spans="2:47" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:46" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="K15" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="L15" s="20" t="s">
+      <c r="M14" s="20" t="s">
         <v>105</v>
       </c>
+      <c r="N14" s="20"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="8"/>
+    </row>
+    <row r="15" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="L15" s="20"/>
       <c r="M15" s="20"/>
       <c r="N15" s="21"/>
-      <c r="S15" s="8"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-    </row>
-    <row r="16" spans="1:46" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="22" t="s">
+      <c r="O15" s="21"/>
+    </row>
+    <row r="16" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E16" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="L16" s="20" t="s">
+      <c r="N16" s="21"/>
+      <c r="O16" s="21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="2:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="P17" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q17" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="M16" s="20"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="8"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D18" s="21" t="s">
+      <c r="R17" s="20"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="8"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+    </row>
+    <row r="18" spans="2:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="O19" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="P19" s="20" t="s">
+      <c r="Q18" s="20" t="s">
         <v>105</v>
       </c>
+      <c r="R18" s="20"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="8"/>
+    </row>
+    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="P19" s="20"/>
       <c r="Q19" s="20"/>
       <c r="R19" s="21"/>
-      <c r="S19" s="8"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="6"/>
-    </row>
-    <row r="20" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="22" t="s">
+      <c r="S19" s="21"/>
+    </row>
+    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E20" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="P20" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q20" s="20"/>
       <c r="R20" s="21"/>
-      <c r="S20" s="8"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="21" t="s">
+      <c r="S20" s="21" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
         <v>203</v>
       </c>
     </row>
@@ -15861,7 +15881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -22409,7 +22429,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -23024,7 +23044,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -23267,7 +23287,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -23492,7 +23512,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
